--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
@@ -55,12 +58,12 @@
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
@@ -70,24 +73,27 @@
     <t>plastic</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>money</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
@@ -112,19 +121,25 @@
     <t>price</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
+  </si>
+  <si>
+    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
@@ -509,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.8307692307692308</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.7857142857142857</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.765625</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7281553398058253</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.53125</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7258064516129032</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C7">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D7">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.3352459016393443</v>
+        <v>0.46875</v>
       </c>
       <c r="L7">
-        <v>409</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>409</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>811</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.71875</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.3055954088952654</v>
+        <v>0.3418032786885246</v>
       </c>
       <c r="L8">
-        <v>213</v>
+        <v>417</v>
       </c>
       <c r="M8">
-        <v>213</v>
+        <v>417</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>484</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -878,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6283783783783784</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -896,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.2448132780082987</v>
+        <v>0.302725968436155</v>
       </c>
       <c r="L9">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="M9">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>364</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -928,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5966386554621849</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -946,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.2048192771084337</v>
+        <v>0.2448132780082987</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>132</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -978,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4898550724637681</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C11">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -996,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.1834862385321101</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L11">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1020,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>267</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1028,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4094488188976378</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1046,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.08326029798422437</v>
+        <v>0.1620795107033639</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1046</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1078,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3707865168539326</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1096,31 +1111,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.02467532467532468</v>
+        <v>0.08413672217353199</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1502</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1128,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3684210526315789</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1146,7 +1161,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14">
+        <v>0.03439325113562622</v>
+      </c>
+      <c r="L14">
+        <v>53</v>
+      </c>
+      <c r="M14">
+        <v>53</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1488</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1154,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3359375</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C15">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1172,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1180,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.297029702970297</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1198,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>142</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1206,13 +1245,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2748815165876777</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1224,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1232,13 +1271,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2478632478632479</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1250,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1258,13 +1297,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2319587628865979</v>
+        <v>0.296875</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1276,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1284,13 +1323,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1884057971014493</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1302,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1310,13 +1349,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.185459940652819</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C21">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1328,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>549</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1336,13 +1375,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1645569620253164</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C22">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1354,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>264</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1362,13 +1401,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1613924050632911</v>
+        <v>0.1780415430267062</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="D23">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1380,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>265</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1388,13 +1427,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.16</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1406,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>168</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1414,13 +1453,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1123348017621145</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1432,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>403</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1440,25 +1479,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1095100864553314</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E26">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>309</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1466,25 +1505,129 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06260296540362438</v>
+        <v>0.15</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>569</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.1233480176211454</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>56</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.1152737752161383</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>41</v>
+      </c>
+      <c r="E29">
+        <v>0.02</v>
+      </c>
+      <c r="F29">
+        <v>0.98</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.08767123287671233</v>
+      </c>
+      <c r="C30">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
